--- a/biology/Botanique/Aechmea_fraudulosa/Aechmea_fraudulosa.xlsx
+++ b/biology/Botanique/Aechmea_fraudulosa/Aechmea_fraudulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea fraudulosa est une espèce de plantes de la famille des Bromeliaceae, endémique de la forêt atlantique (mata atlântica en portugais) au Brésil.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aechmea blanchetii (Baker) Mez [Illégitime][2] ;
-Streptocalyx blanchetii Baker[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aechmea blanchetii (Baker) Mez [Illégitime] ;
+Streptocalyx blanchetii Baker.</t>
         </is>
       </c>
     </row>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aechmea fraudulosa est une plante épiphyte[3]. Ses feuilles ont une longueur de plus de 50 cm, avec une épine dure à l'extrémité. Les branche, verticales, font de nombreuses fleurs[4]. Les bractées et les racines sont rouges[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aechmea fraudulosa est une plante épiphyte. Ses feuilles ont une longueur de plus de 50 cm, avec une épine dure à l'extrémité. Les branche, verticales, font de nombreuses fleurs. Les bractées et les racines sont rouges.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique de l'État de Bahia, dans la région du Nordeste, au Brésil ; elle vit principalement en milieu tropical humide[3], dans la forêt atlantique[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de l'État de Bahia, dans la région du Nordeste, au Brésil ; elle vit principalement en milieu tropical humide, dans la forêt atlantique.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est utilisée comme décoration dans les jardins, ainsi que comme source de nourriture[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est utilisée comme décoration dans les jardins, ainsi que comme source de nourriture.
 </t>
         </is>
       </c>
